--- a/data/access_data/konkordanzen/Konkordanz_Access-APIS_Titel zu Funktionen_01.07.2021.xlsx
+++ b/data/access_data/konkordanzen/Konkordanz_Access-APIS_Titel zu Funktionen_01.07.2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstandhartinger\Desktop\gemeinsame Dateien\Import ACCESS\Konkordanzen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorpirgie/gregor/arbeit/acdh/viecpro_import_for_upload/viecpro_import_app/data/access_data/konkordanzen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D86FB35-BA2C-4B81-AD71-DFF3C5CA7F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215E63C-70AC-A74E-B062-6EA118FF58AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{CDAF71BE-FAA0-4B2F-82BB-E980A584939E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14700" xr2:uid="{CDAF71BE-FAA0-4B2F-82BB-E980A584939E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Dummy Hofstaat</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
   </si>
   <si>
     <t>OMeA</t>
+  </si>
+  <si>
+    <t>K6 (Ks.)</t>
   </si>
 </sst>
 </file>
@@ -789,23 +789,23 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -817,49 +817,49 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -870,66 +870,66 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,149 +940,149 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1093,39 +1093,39 @@
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1133,14 +1133,14 @@
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1148,14 +1148,14 @@
         <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1166,11 +1166,11 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1178,276 +1178,276 @@
         <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
@@ -1456,105 +1456,105 @@
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>6</v>
@@ -1563,28 +1563,28 @@
         <v>22</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:E52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E52">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1593,12 +1593,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1805,15 +1802,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F8F7D4-3B9A-498D-814D-0E3F90E0A0D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3E0CD0-5797-460C-B898-C333933B4F42}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1838,18 +1847,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3E0CD0-5797-460C-B898-C333933B4F42}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F8F7D4-3B9A-498D-814D-0E3F90E0A0D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>